--- a/dataset/xlsx/cases.xlsx
+++ b/dataset/xlsx/cases.xlsx
@@ -11605,6 +11605,9 @@
       <c r="B48" t="s">
         <v>115</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48" t="s">
         <v>2682</v>
       </c>
@@ -11634,6 +11637,9 @@
       <c r="B49" t="s">
         <v>116</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
       <c r="D49" t="s">
         <v>2681</v>
       </c>
@@ -11663,6 +11669,9 @@
       <c r="B50" t="s">
         <v>117</v>
       </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
       <c r="D50" t="s">
         <v>2681</v>
       </c>
@@ -12315,6 +12324,9 @@
       </c>
       <c r="B69" t="s">
         <v>136</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>2682</v>
